--- a/data/trans_camb/P11_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 5,42</t>
+          <t>-2,91; 5,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 5,02</t>
+          <t>-3,71; 4,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,37; 16,0</t>
+          <t>6,04; 16,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 9,34</t>
+          <t>1,37; 9,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,39; 10,75</t>
+          <t>1,88; 10,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,62; 21,41</t>
+          <t>13,87; 21,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 6,71</t>
+          <t>0,86; 6,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 7,32</t>
+          <t>1,13; 7,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,36; 18,68</t>
+          <t>12,62; 18,77</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 17,6</t>
+          <t>-8,15; 16,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,12; 15,89</t>
+          <t>-10,55; 15,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,19; 50,46</t>
+          <t>17,64; 51,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,86; 21,16</t>
+          <t>2,81; 20,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,9; 23,93</t>
+          <t>3,52; 23,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,78; 47,64</t>
+          <t>28,69; 48,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,98; 17,04</t>
+          <t>2,06; 17,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,63; 18,24</t>
+          <t>2,7; 18,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,54; 47,78</t>
+          <t>30,12; 47,58</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 3,61</t>
+          <t>-0,8; 3,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 6,11</t>
+          <t>1,28; 5,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,01; 15,58</t>
+          <t>10,18; 15,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 5,3</t>
+          <t>-0,36; 5,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 4,86</t>
+          <t>-0,65; 4,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,45; 30,05</t>
+          <t>11,33; 27,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 3,68</t>
+          <t>0,13; 3,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,74</t>
+          <t>1,43; 4,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,87; 20,8</t>
+          <t>12,01; 20,97</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 34,43</t>
+          <t>-6,47; 34,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,02; 58,72</t>
+          <t>9,89; 57,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>80,28; 149,74</t>
+          <t>80,2; 149,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 30,66</t>
+          <t>-1,76; 30,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 29,61</t>
+          <t>-3,21; 29,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,85; 158,19</t>
+          <t>58,89; 153,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,79; 26,39</t>
+          <t>0,8; 25,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,46; 34,41</t>
+          <t>9,08; 34,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>77,28; 144,85</t>
+          <t>77,91; 140,19</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 4,75</t>
+          <t>-3,9; 4,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 3,41</t>
+          <t>-4,1; 3,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,43; 12,41</t>
+          <t>4,39; 13,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,32; -1,23</t>
+          <t>-10,58; -1,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 3,95</t>
+          <t>-5,84; 3,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,85; 12,94</t>
+          <t>4,21; 13,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 0,44</t>
+          <t>-5,2; 0,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 2,64</t>
+          <t>-3,67; 2,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,09; 12,02</t>
+          <t>5,6; 12,06</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-30,56; 54,72</t>
+          <t>-32,2; 55,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-34,53; 40,56</t>
+          <t>-34,07; 43,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>32,92; 148,01</t>
+          <t>34,32; 162,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-54,62; -8,53</t>
+          <t>-54,23; -8,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,32; 26,89</t>
+          <t>-30,0; 21,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,31; 91,65</t>
+          <t>21,26; 91,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-39,91; 4,26</t>
+          <t>-36,54; 5,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-23,39; 22,75</t>
+          <t>-24,85; 21,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>38,41; 102,72</t>
+          <t>34,72; 100,83</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 2,58</t>
+          <t>-1,31; 2,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 2,38</t>
+          <t>-1,35; 2,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,97; 10,33</t>
+          <t>6,15; 10,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 4,23</t>
+          <t>-0,07; 4,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 1,89</t>
+          <t>-2,5; 1,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,24; 16,63</t>
+          <t>7,27; 15,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 2,95</t>
+          <t>-0,23; 2,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 1,63</t>
+          <t>-1,34; 1,65</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,49; 13,43</t>
+          <t>7,66; 13,11</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 14,77</t>
+          <t>-6,71; 15,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 13,93</t>
+          <t>-6,87; 14,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>31,51; 59,2</t>
+          <t>32,8; 61,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 15,05</t>
+          <t>-0,22; 14,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 6,68</t>
+          <t>-8,26; 6,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>24,0; 57,34</t>
+          <t>23,83; 55,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 12,82</t>
+          <t>-0,91; 12,24</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 7,19</t>
+          <t>-5,42; 7,09</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>30,86; 56,68</t>
+          <t>31,06; 54,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P11_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 5,22</t>
+          <t>-3,05; 5,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 4,8</t>
+          <t>-3,66; 5,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,04; 16,08</t>
+          <t>6,2; 15,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 9,07</t>
+          <t>1,51; 9,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 10,54</t>
+          <t>2,37; 10,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,87; 21,59</t>
+          <t>13,37; 21,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 6,77</t>
+          <t>0,76; 7,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 7,27</t>
+          <t>0,87; 7,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,62; 18,77</t>
+          <t>12,48; 18,81</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 16,67</t>
+          <t>-8,48; 17,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 15,74</t>
+          <t>-10,2; 16,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,64; 51,14</t>
+          <t>18,08; 51,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,81; 20,61</t>
+          <t>3,02; 20,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,52; 23,49</t>
+          <t>4,92; 24,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,69; 48,65</t>
+          <t>26,83; 46,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 17,14</t>
+          <t>1,87; 18,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,7; 18,58</t>
+          <t>2,06; 18,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>30,12; 47,58</t>
+          <t>29,02; 47,67</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 3,64</t>
+          <t>-0,76; 3,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 5,95</t>
+          <t>1,56; 6,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,18; 15,57</t>
+          <t>10,46; 15,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 5,08</t>
+          <t>-0,34; 5,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 4,83</t>
+          <t>-0,47; 4,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,33; 27,4</t>
+          <t>11,28; 27,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 3,53</t>
+          <t>0,12; 3,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,43; 4,76</t>
+          <t>1,42; 4,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,01; 20,97</t>
+          <t>11,95; 19,92</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 34,99</t>
+          <t>-5,86; 35,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,89; 57,47</t>
+          <t>12,86; 60,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>80,2; 149,39</t>
+          <t>82,94; 150,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 30,63</t>
+          <t>-1,78; 31,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 29,22</t>
+          <t>-2,43; 29,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>58,89; 153,33</t>
+          <t>58,41; 154,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 25,14</t>
+          <t>0,96; 28,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,08; 34,41</t>
+          <t>9,12; 35,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>77,91; 140,19</t>
+          <t>76,68; 138,69</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 4,66</t>
+          <t>-4,02; 4,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 3,48</t>
+          <t>-4,44; 3,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,39; 13,26</t>
+          <t>4,49; 12,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,58; -1,41</t>
+          <t>-10,92; -1,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 3,28</t>
+          <t>-5,6; 3,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,21; 13,02</t>
+          <t>4,3; 13,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 0,6</t>
+          <t>-5,72; 0,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 2,62</t>
+          <t>-3,41; 2,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,6; 12,06</t>
+          <t>5,98; 12,25</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-32,2; 55,79</t>
+          <t>-34,27; 56,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-34,07; 43,34</t>
+          <t>-36,03; 41,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>34,32; 162,89</t>
+          <t>35,69; 145,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-54,23; -8,27</t>
+          <t>-55,72; -9,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,0; 21,92</t>
+          <t>-29,9; 23,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,26; 91,74</t>
+          <t>21,41; 90,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-36,54; 5,21</t>
+          <t>-37,81; 7,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-24,85; 21,68</t>
+          <t>-22,74; 22,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>34,72; 100,83</t>
+          <t>39,75; 103,7</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 2,64</t>
+          <t>-1,27; 2,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 2,5</t>
+          <t>-1,34; 2,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,15; 10,53</t>
+          <t>6,15; 10,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 4,1</t>
+          <t>-0,31; 4,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 1,86</t>
+          <t>-2,78; 1,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,27; 15,89</t>
+          <t>7,2; 16,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 2,82</t>
+          <t>-0,03; 2,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 1,65</t>
+          <t>-1,36; 1,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,66; 13,11</t>
+          <t>7,65; 13,58</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 15,43</t>
+          <t>-6,68; 14,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 14,55</t>
+          <t>-7,1; 13,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>32,8; 61,86</t>
+          <t>32,38; 59,62</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 14,84</t>
+          <t>-0,98; 15,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 6,48</t>
+          <t>-9,05; 6,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>23,83; 55,6</t>
+          <t>23,88; 58,14</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 12,24</t>
+          <t>-0,04; 12,63</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 7,09</t>
+          <t>-5,57; 6,33</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>31,06; 54,69</t>
+          <t>31,26; 57,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P11_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas</t>
+          <t>Población a la que el dolor le dificultó su trabajo habitual las últimas 4 semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 5,58</t>
+          <t>-2,97; 5,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 5,16</t>
+          <t>-4,34; 5,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,2; 15,75</t>
+          <t>6,37; 16,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,51; 9,37</t>
+          <t>1,81; 9,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,37; 10,9</t>
+          <t>2,39; 10,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,37; 21,0</t>
+          <t>13,62; 21,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 7,2</t>
+          <t>0,85; 6,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 7,35</t>
+          <t>0,78; 7,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,48; 18,81</t>
+          <t>12,36; 18,68</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 17,51</t>
+          <t>-8,59; 17,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 16,46</t>
+          <t>-12,12; 15,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,08; 51,01</t>
+          <t>18,19; 50,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,02; 20,72</t>
+          <t>3,86; 21,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,92; 24,19</t>
+          <t>4,9; 23,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,83; 46,71</t>
+          <t>27,78; 47,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,87; 18,49</t>
+          <t>1,98; 17,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 18,71</t>
+          <t>1,63; 18,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,02; 47,67</t>
+          <t>29,54; 47,78</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 3,58</t>
+          <t>-0,71; 3,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,56; 6,14</t>
+          <t>1,66; 6,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,46; 15,86</t>
+          <t>10,01; 15,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 5,38</t>
+          <t>-0,34; 5,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 4,83</t>
+          <t>-0,58; 4,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,28; 27,37</t>
+          <t>11,45; 30,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,12; 3,85</t>
+          <t>0,21; 3,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,89</t>
+          <t>1,3; 4,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,95; 19,92</t>
+          <t>11,87; 20,8</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 35,32</t>
+          <t>-5,6; 34,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,86; 60,32</t>
+          <t>13,02; 58,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>82,94; 150,13</t>
+          <t>80,28; 149,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 31,32</t>
+          <t>-1,8; 30,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 29,07</t>
+          <t>-2,79; 29,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>58,41; 154,31</t>
+          <t>59,85; 158,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 28,25</t>
+          <t>0,79; 26,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,12; 35,41</t>
+          <t>8,46; 34,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>76,68; 138,69</t>
+          <t>77,28; 144,85</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 4,65</t>
+          <t>-3,63; 4,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 3,25</t>
+          <t>-4,23; 3,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,49; 12,53</t>
+          <t>4,43; 12,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,92; -1,52</t>
+          <t>-10,32; -1,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 3,47</t>
+          <t>-5,37; 3,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,3; 13,18</t>
+          <t>3,85; 12,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 0,87</t>
+          <t>-6,05; 0,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 2,62</t>
+          <t>-3,52; 2,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,98; 12,25</t>
+          <t>6,09; 12,02</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-34,27; 56,65</t>
+          <t>-30,56; 54,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-36,03; 41,79</t>
+          <t>-34,53; 40,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>35,69; 145,04</t>
+          <t>32,92; 148,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-55,72; -9,87</t>
+          <t>-54,62; -8,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,9; 23,58</t>
+          <t>-28,32; 26,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,41; 90,89</t>
+          <t>19,31; 91,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-37,81; 7,42</t>
+          <t>-39,91; 4,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-22,74; 22,74</t>
+          <t>-23,39; 22,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>39,75; 103,7</t>
+          <t>38,41; 102,72</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 2,57</t>
+          <t>-1,32; 2,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 2,39</t>
+          <t>-1,62; 2,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,15; 10,36</t>
+          <t>5,97; 10,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 4,32</t>
+          <t>-0,21; 4,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 1,73</t>
+          <t>-2,44; 1,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,2; 16,31</t>
+          <t>7,24; 16,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 2,88</t>
+          <t>-0,11; 2,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,45</t>
+          <t>-1,47; 1,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,65; 13,58</t>
+          <t>7,49; 13,43</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 14,98</t>
+          <t>-6,98; 14,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 13,9</t>
+          <t>-8,36; 13,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>32,38; 59,62</t>
+          <t>31,51; 59,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 15,33</t>
+          <t>-0,7; 15,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 6,17</t>
+          <t>-8,02; 6,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>23,88; 58,14</t>
+          <t>24,0; 57,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 12,63</t>
+          <t>-0,36; 12,82</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 6,33</t>
+          <t>-5,93; 7,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>31,26; 57,52</t>
+          <t>30,86; 56,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P11_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,08</t>
+          <t>10,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,4</t>
+          <t>17,43</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15,53</t>
+          <t>15,15</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,37; 16,0</t>
+          <t>6,01; 15,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,62; 21,41</t>
+          <t>13,57; 21,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,36; 18,68</t>
+          <t>11,9; 18,33</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>33,16%</t>
+          <t>32,04%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,19%</t>
+          <t>37,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>37,95%</t>
+          <t>37,03%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,19; 50,46</t>
+          <t>17,07; 49,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,78; 47,64</t>
+          <t>28,02; 48,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,54; 47,78</t>
+          <t>28,14; 46,34</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,01</t>
+          <t>10,81</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,75</t>
+          <t>18,03</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,59</t>
+          <t>14,45</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,01; 15,58</t>
+          <t>3,95; 14,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,45; 30,05</t>
+          <t>10,57; 40,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,87; 20,8</t>
+          <t>9,7; 25,15</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>113,16%</t>
+          <t>94,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>86,02%</t>
+          <t>98,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>98,6%</t>
+          <t>97,66%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>80,28; 149,74</t>
+          <t>36,27; 131,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,85; 158,19</t>
+          <t>56,82; 235,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>77,28; 144,85</t>
+          <t>63,31; 172,33</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,56</t>
+          <t>8,63</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,66</t>
+          <t>8,95</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,95</t>
+          <t>9,07</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,43; 12,41</t>
+          <t>4,38; 12,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,85; 12,94</t>
+          <t>4,29; 13,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,09; 12,02</t>
+          <t>6,15; 12,12</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>83,75%</t>
+          <t>84,46%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>51,27%</t>
+          <t>52,98%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>67,25%</t>
+          <t>68,14%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>32,92; 148,01</t>
+          <t>33,34; 148,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,31; 91,65</t>
+          <t>21,05; 94,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>38,41; 102,72</t>
+          <t>38,38; 103,44</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,39</t>
+          <t>6,73</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,89</t>
+          <t>11,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9,42</t>
+          <t>9,0</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,97; 10,33</t>
+          <t>1,1; 9,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,24; 16,63</t>
+          <t>6,6; 22,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,49; 13,43</t>
+          <t>5,17; 15,22</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>46,14%</t>
+          <t>37,04%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>33,87%</t>
+          <t>37,68%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>39,63%</t>
+          <t>37,85%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>31,51; 59,2</t>
+          <t>6,43; 52,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>24,0; 57,34</t>
+          <t>22,47; 76,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>30,86; 56,68</t>
+          <t>21,58; 64,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P11_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 5,42</t>
+          <t>-3,14; 5,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 5,02</t>
+          <t>-3,29; 5,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,01; 15,79</t>
+          <t>6,33; 15,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 9,34</t>
+          <t>1,08; 8,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,39; 10,75</t>
+          <t>1,99; 10,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,57; 21,41</t>
+          <t>13,66; 21,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 6,71</t>
+          <t>1,0; 6,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 7,32</t>
+          <t>0,73; 7,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,9; 18,33</t>
+          <t>12,3; 18,29</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 17,6</t>
+          <t>-8,64; 18,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,12; 15,89</t>
+          <t>-9,2; 16,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,07; 49,36</t>
+          <t>17,67; 50,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,86; 21,16</t>
+          <t>2,3; 19,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,9; 23,93</t>
+          <t>4,21; 22,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,02; 48,02</t>
+          <t>27,69; 47,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,98; 17,04</t>
+          <t>2,38; 16,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,63; 18,24</t>
+          <t>1,89; 17,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,14; 46,34</t>
+          <t>29,18; 46,16</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 3,61</t>
+          <t>-0,82; 3,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 6,11</t>
+          <t>1,85; 6,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 14,22</t>
+          <t>3,56; 14,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 5,3</t>
+          <t>-0,35; 5,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 4,86</t>
+          <t>-0,75; 4,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,57; 40,2</t>
+          <t>10,18; 36,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 3,68</t>
+          <t>0,03; 3,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,74</t>
+          <t>1,49; 5,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,7; 25,15</t>
+          <t>9,75; 24,23</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 34,43</t>
+          <t>-6,42; 36,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,02; 58,72</t>
+          <t>14,63; 60,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,27; 131,34</t>
+          <t>35,5; 133,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 30,66</t>
+          <t>-1,84; 29,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 29,61</t>
+          <t>-3,98; 28,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>56,82; 235,44</t>
+          <t>53,11; 206,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,79; 26,39</t>
+          <t>0,2; 25,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,46; 34,41</t>
+          <t>9,45; 36,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>63,31; 172,33</t>
+          <t>64,29; 161,41</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 4,75</t>
+          <t>-3,6; 4,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 3,41</t>
+          <t>-4,12; 3,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,38; 12,61</t>
+          <t>4,58; 12,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,32; -1,23</t>
+          <t>-10,46; -1,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 3,95</t>
+          <t>-5,6; 3,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,29; 13,32</t>
+          <t>4,54; 13,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 0,44</t>
+          <t>-5,41; 0,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 2,64</t>
+          <t>-3,66; 2,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,15; 12,12</t>
+          <t>6,09; 12,13</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-30,56; 54,72</t>
+          <t>-29,62; 55,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-34,53; 40,56</t>
+          <t>-35,11; 44,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>33,34; 148,25</t>
+          <t>37,45; 155,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-54,62; -8,53</t>
+          <t>-54,22; -7,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,32; 26,89</t>
+          <t>-29,22; 27,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,05; 94,17</t>
+          <t>22,69; 91,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-39,91; 4,26</t>
+          <t>-36,97; 6,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-23,39; 22,75</t>
+          <t>-25,0; 19,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>38,38; 103,44</t>
+          <t>39,57; 104,13</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 2,58</t>
+          <t>-1,2; 2,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 2,38</t>
+          <t>-1,47; 2,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 9,32</t>
+          <t>1,54; 9,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 4,23</t>
+          <t>-0,17; 4,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 1,89</t>
+          <t>-2,42; 1,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,6; 22,02</t>
+          <t>6,33; 22,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 2,95</t>
+          <t>-0,02; 2,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 1,63</t>
+          <t>-1,52; 1,55</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,17; 15,22</t>
+          <t>5,38; 15,17</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 14,77</t>
+          <t>-6,3; 15,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 13,93</t>
+          <t>-7,57; 13,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,43; 52,61</t>
+          <t>8,41; 54,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 15,05</t>
+          <t>-0,56; 15,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 6,68</t>
+          <t>-7,97; 6,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>22,47; 76,67</t>
+          <t>21,23; 78,17</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 12,82</t>
+          <t>-0,08; 12,81</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 7,19</t>
+          <t>-6,19; 6,72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>21,58; 64,94</t>
+          <t>22,35; 63,7</t>
         </is>
       </c>
     </row>
